--- a/20. Metacasanova (WAPL)/Evaluation/Summary.xlsx
+++ b/20. Metacasanova (WAPL)/Evaluation/Summary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesco\Documents\GitHub\Mark3CodeGenerationSamples\CodeGenerationTypeFunctions\CodeGenerationTypeFunctions\bin\Windows\Release\Benchmark\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesco\Documents\GitHub\Papers\20. Metacasanova (WAPL)\Evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -29,13 +29,13 @@
     <t>RECORDS</t>
   </si>
   <si>
-    <t xml:space="preserve"> FIELDS</t>
-  </si>
-  <si>
     <t xml:space="preserve"> TIME ms (Functors)</t>
   </si>
   <si>
     <t>Time ms (Dynamic Table)</t>
+  </si>
+  <si>
+    <t>FIELDS</t>
   </si>
 </sst>
 </file>
@@ -400,27 +400,28 @@
   <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D31"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="19.85546875" customWidth="1"/>
     <col min="4" max="4" width="27.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -439,35 +440,35 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="C3" s="1">
-        <v>9.6000000000000002E-5</v>
+        <v>9.0000000000000002E-6</v>
       </c>
       <c r="D3" s="1">
-        <v>6.3E-5</v>
+        <v>1.2999999999999999E-5</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B4">
-        <v>1000000</v>
-      </c>
-      <c r="C4">
-        <v>9.4700000000000003E-4</v>
-      </c>
-      <c r="D4">
-        <v>7.2900000000000005E-4</v>
+        <v>10000</v>
+      </c>
+      <c r="C4" s="1">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="D4" s="1">
+        <v>2.6999999999999999E-5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>10000</v>
@@ -476,40 +477,40 @@
         <v>9.0000000000000002E-6</v>
       </c>
       <c r="D5" s="1">
-        <v>1.2999999999999999E-5</v>
+        <v>4.5000000000000003E-5</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="C6" s="1">
-        <v>9.3999999999999994E-5</v>
-      </c>
-      <c r="D6">
-        <v>1.5899999999999999E-4</v>
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="D6" s="1">
+        <v>6.9999999999999994E-5</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>1000000</v>
-      </c>
-      <c r="C7">
-        <v>9.5100000000000002E-4</v>
-      </c>
-      <c r="D7">
-        <v>1.7830000000000001E-3</v>
+        <v>10000</v>
+      </c>
+      <c r="C7" s="1">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="D7" s="1">
+        <v>9.8999999999999994E-5</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>10000</v>
@@ -518,40 +519,40 @@
         <v>9.0000000000000002E-6</v>
       </c>
       <c r="D8" s="1">
-        <v>2.6999999999999999E-5</v>
+        <v>1.3300000000000001E-4</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>100000</v>
+        <v>10000</v>
       </c>
       <c r="C9" s="1">
-        <v>9.5000000000000005E-5</v>
-      </c>
-      <c r="D9">
-        <v>3.0400000000000002E-4</v>
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.75E-4</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>1000000</v>
-      </c>
-      <c r="C10">
-        <v>9.5E-4</v>
-      </c>
-      <c r="D10">
-        <v>3.3319999999999999E-3</v>
+        <v>10000</v>
+      </c>
+      <c r="C10" s="1">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="D10" s="1">
+        <v>2.2000000000000001E-4</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>10000</v>
@@ -560,12 +561,12 @@
         <v>9.0000000000000002E-6</v>
       </c>
       <c r="D11" s="1">
-        <v>4.5000000000000003E-5</v>
+        <v>2.7E-4</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B12">
         <v>100000</v>
@@ -573,41 +574,41 @@
       <c r="C12" s="1">
         <v>9.6000000000000002E-5</v>
       </c>
-      <c r="D12">
-        <v>5.0299999999999997E-4</v>
+      <c r="D12" s="1">
+        <v>6.3E-5</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B13">
-        <v>1000000</v>
-      </c>
-      <c r="C13">
-        <v>9.6000000000000002E-4</v>
-      </c>
-      <c r="D13">
-        <v>5.4299999999999999E-3</v>
+        <v>100000</v>
+      </c>
+      <c r="C13" s="1">
+        <v>9.3999999999999994E-5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.5899999999999999E-4</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B14">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="C14" s="1">
-        <v>9.0000000000000002E-6</v>
+        <v>9.5000000000000005E-5</v>
       </c>
       <c r="D14" s="1">
-        <v>6.9999999999999994E-5</v>
+        <v>3.0400000000000002E-4</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B15">
         <v>100000</v>
@@ -615,8 +616,8 @@
       <c r="C15" s="1">
         <v>9.6000000000000002E-5</v>
       </c>
-      <c r="D15">
-        <v>7.5199999999999996E-4</v>
+      <c r="D15" s="1">
+        <v>5.0299999999999997E-4</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -624,13 +625,13 @@
         <v>5</v>
       </c>
       <c r="B16">
-        <v>1000000</v>
-      </c>
-      <c r="C16">
-        <v>9.6500000000000004E-4</v>
-      </c>
-      <c r="D16">
-        <v>8.0269999999999994E-3</v>
+        <v>100000</v>
+      </c>
+      <c r="C16" s="1">
+        <v>9.6000000000000002E-5</v>
+      </c>
+      <c r="D16" s="1">
+        <v>7.5199999999999996E-4</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -638,195 +639,195 @@
         <v>6</v>
       </c>
       <c r="B17">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="C17" s="1">
-        <v>9.0000000000000002E-6</v>
+        <v>9.6000000000000002E-5</v>
       </c>
       <c r="D17" s="1">
-        <v>9.8999999999999994E-5</v>
+        <v>1.0510000000000001E-3</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B18">
         <v>100000</v>
       </c>
       <c r="C18" s="1">
-        <v>9.6000000000000002E-5</v>
-      </c>
-      <c r="D18">
-        <v>1.0510000000000001E-3</v>
+        <v>9.7E-5</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1.413E-3</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B19">
-        <v>1000000</v>
-      </c>
-      <c r="C19">
-        <v>9.7099999999999997E-4</v>
-      </c>
-      <c r="D19">
-        <v>1.111E-2</v>
+        <v>100000</v>
+      </c>
+      <c r="C19" s="1">
+        <v>9.7999999999999997E-5</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.8220000000000001E-3</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B20">
-        <v>10000</v>
+        <v>100000</v>
       </c>
       <c r="C20" s="1">
-        <v>9.0000000000000002E-6</v>
-      </c>
-      <c r="D20">
-        <v>1.3300000000000001E-4</v>
+        <v>9.8999999999999994E-5</v>
+      </c>
+      <c r="D20" s="1">
+        <v>2.294E-3</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B21">
         <v>100000</v>
       </c>
       <c r="C21" s="1">
-        <v>9.7E-5</v>
-      </c>
-      <c r="D21">
-        <v>1.413E-3</v>
+        <v>1E-4</v>
+      </c>
+      <c r="D21" s="1">
+        <v>2.8050000000000002E-3</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B22">
         <v>1000000</v>
       </c>
-      <c r="C22">
-        <v>9.7499999999999996E-4</v>
-      </c>
-      <c r="D22">
-        <v>1.4739E-2</v>
+      <c r="C22" s="1">
+        <v>9.4700000000000003E-4</v>
+      </c>
+      <c r="D22" s="1">
+        <v>7.2900000000000005E-4</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B23">
-        <v>10000</v>
+        <v>1000000</v>
       </c>
       <c r="C23" s="1">
-        <v>9.0000000000000002E-6</v>
-      </c>
-      <c r="D23">
-        <v>1.75E-4</v>
+        <v>9.5100000000000002E-4</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1.7830000000000001E-3</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B24">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="C24" s="1">
-        <v>9.7999999999999997E-5</v>
-      </c>
-      <c r="D24">
-        <v>1.8220000000000001E-3</v>
+        <v>9.5E-4</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3.3319999999999999E-3</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B25">
         <v>1000000</v>
       </c>
-      <c r="C25">
-        <v>9.8200000000000002E-4</v>
-      </c>
-      <c r="D25">
-        <v>1.8931E-2</v>
+      <c r="C25" s="1">
+        <v>9.6000000000000002E-4</v>
+      </c>
+      <c r="D25" s="1">
+        <v>5.4299999999999999E-3</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B26">
-        <v>10000</v>
+        <v>1000000</v>
       </c>
       <c r="C26" s="1">
-        <v>9.0000000000000002E-6</v>
-      </c>
-      <c r="D26">
-        <v>2.2000000000000001E-4</v>
+        <v>9.6500000000000004E-4</v>
+      </c>
+      <c r="D26" s="1">
+        <v>8.0269999999999994E-3</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B27">
-        <v>100000</v>
+        <v>1000000</v>
       </c>
       <c r="C27" s="1">
-        <v>9.8999999999999994E-5</v>
-      </c>
-      <c r="D27">
-        <v>2.294E-3</v>
+        <v>9.7099999999999997E-4</v>
+      </c>
+      <c r="D27" s="1">
+        <v>1.111E-2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B28">
         <v>1000000</v>
       </c>
-      <c r="C28">
-        <v>9.9200000000000004E-4</v>
-      </c>
-      <c r="D28">
-        <v>2.3666E-2</v>
+      <c r="C28" s="1">
+        <v>9.7499999999999996E-4</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1.4739E-2</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B29">
-        <v>10000</v>
+        <v>1000000</v>
       </c>
       <c r="C29" s="1">
-        <v>9.0000000000000002E-6</v>
-      </c>
-      <c r="D29">
-        <v>2.7E-4</v>
+        <v>9.8200000000000002E-4</v>
+      </c>
+      <c r="D29" s="1">
+        <v>1.8931E-2</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B30">
-        <v>100000</v>
-      </c>
-      <c r="C30">
-        <v>1E-4</v>
-      </c>
-      <c r="D30">
-        <v>2.8050000000000002E-3</v>
+        <v>1000000</v>
+      </c>
+      <c r="C30" s="1">
+        <v>9.9200000000000004E-4</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2.3666E-2</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -836,14 +837,17 @@
       <c r="B31">
         <v>1000000</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="1">
         <v>1.0039999999999999E-3</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="1">
         <v>2.8732000000000001E-2</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:D31">
+    <sortCondition ref="B2:B31"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/20. Metacasanova (WAPL)/Evaluation/Summary.xlsx
+++ b/20. Metacasanova (WAPL)/Evaluation/Summary.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17927"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18067"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11610"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11616"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="6">
   <si>
     <t>RECORDS</t>
   </si>
@@ -36,6 +36,12 @@
   </si>
   <si>
     <t>FIELDS</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Average gain</t>
   </si>
 </sst>
 </file>
@@ -79,10 +85,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,20 +404,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="19.85546875" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="19.88671875" customWidth="1"/>
+    <col min="4" max="4" width="27.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="31.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -423,8 +432,11 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -437,8 +449,12 @@
       <c r="D2" s="1">
         <v>5.0000000000000004E-6</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="3">
+        <f>D2/C2</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -451,8 +467,12 @@
       <c r="D3" s="1">
         <v>1.2999999999999999E-5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="3">
+        <f t="shared" ref="E3:E31" si="0">D3/C3</f>
+        <v>1.4444444444444444</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -465,8 +485,12 @@
       <c r="D4" s="1">
         <v>2.6999999999999999E-5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="3">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -479,8 +503,12 @@
       <c r="D5" s="1">
         <v>4.5000000000000003E-5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -493,8 +521,12 @@
       <c r="D6" s="1">
         <v>6.9999999999999994E-5</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="3">
+        <f t="shared" si="0"/>
+        <v>7.7777777777777768</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -507,8 +539,12 @@
       <c r="D7" s="1">
         <v>9.8999999999999994E-5</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="3">
+        <f t="shared" si="0"/>
+        <v>10.999999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -521,8 +557,12 @@
       <c r="D8" s="1">
         <v>1.3300000000000001E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>14.777777777777779</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -535,8 +575,12 @@
       <c r="D9" s="1">
         <v>1.75E-4</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>19.444444444444443</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -549,8 +593,12 @@
       <c r="D10" s="1">
         <v>2.2000000000000001E-4</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="3">
+        <f t="shared" si="0"/>
+        <v>24.444444444444446</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -563,8 +611,19 @@
       <c r="D11" s="1">
         <v>2.7E-4</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="3">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11" s="3">
+        <f>AVERAGE(E2:E11)</f>
+        <v>11.738888888888889</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
@@ -577,8 +636,12 @@
       <c r="D12" s="1">
         <v>6.3E-5</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.65625</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2</v>
       </c>
@@ -591,8 +654,12 @@
       <c r="D13" s="1">
         <v>1.5899999999999999E-4</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="3">
+        <f t="shared" si="0"/>
+        <v>1.6914893617021276</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3</v>
       </c>
@@ -605,8 +672,12 @@
       <c r="D14" s="1">
         <v>3.0400000000000002E-4</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="3">
+        <f t="shared" si="0"/>
+        <v>3.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>4</v>
       </c>
@@ -619,8 +690,12 @@
       <c r="D15" s="1">
         <v>5.0299999999999997E-4</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="3">
+        <f t="shared" si="0"/>
+        <v>5.239583333333333</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>5</v>
       </c>
@@ -633,8 +708,12 @@
       <c r="D16" s="1">
         <v>7.5199999999999996E-4</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="3">
+        <f t="shared" si="0"/>
+        <v>7.833333333333333</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>6</v>
       </c>
@@ -647,8 +726,12 @@
       <c r="D17" s="1">
         <v>1.0510000000000001E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="3">
+        <f t="shared" si="0"/>
+        <v>10.947916666666668</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>7</v>
       </c>
@@ -661,8 +744,12 @@
       <c r="D18" s="1">
         <v>1.413E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="3">
+        <f t="shared" si="0"/>
+        <v>14.56701030927835</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>8</v>
       </c>
@@ -675,8 +762,12 @@
       <c r="D19" s="1">
         <v>1.8220000000000001E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="3">
+        <f t="shared" si="0"/>
+        <v>18.591836734693878</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>9</v>
       </c>
@@ -689,8 +780,12 @@
       <c r="D20" s="1">
         <v>2.294E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="3">
+        <f t="shared" si="0"/>
+        <v>23.171717171717173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>10</v>
       </c>
@@ -703,8 +798,19 @@
       <c r="D21" s="1">
         <v>2.8050000000000002E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="3">
+        <f t="shared" si="0"/>
+        <v>28.05</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="3">
+        <f>AVERAGE(E12:E21)</f>
+        <v>11.394913691072485</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1</v>
       </c>
@@ -717,8 +823,12 @@
       <c r="D22" s="1">
         <v>7.2900000000000005E-4</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="3">
+        <f t="shared" si="0"/>
+        <v>0.76979936642027458</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2</v>
       </c>
@@ -731,8 +841,12 @@
       <c r="D23" s="1">
         <v>1.7830000000000001E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="3">
+        <f t="shared" si="0"/>
+        <v>1.8748685594111463</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>3</v>
       </c>
@@ -745,8 +859,12 @@
       <c r="D24" s="1">
         <v>3.3319999999999999E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="3">
+        <f t="shared" si="0"/>
+        <v>3.5073684210526315</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>4</v>
       </c>
@@ -759,8 +877,12 @@
       <c r="D25" s="1">
         <v>5.4299999999999999E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="3">
+        <f t="shared" si="0"/>
+        <v>5.65625</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>5</v>
       </c>
@@ -773,8 +895,12 @@
       <c r="D26" s="1">
         <v>8.0269999999999994E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="3">
+        <f t="shared" si="0"/>
+        <v>8.3181347150259057</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>6</v>
       </c>
@@ -787,8 +913,12 @@
       <c r="D27" s="1">
         <v>1.111E-2</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="3">
+        <f t="shared" si="0"/>
+        <v>11.441812564366632</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>7</v>
       </c>
@@ -801,8 +931,12 @@
       <c r="D28" s="1">
         <v>1.4739E-2</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="3">
+        <f t="shared" si="0"/>
+        <v>15.116923076923078</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>8</v>
       </c>
@@ -815,8 +949,12 @@
       <c r="D29" s="1">
         <v>1.8931E-2</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="3">
+        <f t="shared" si="0"/>
+        <v>19.278004073319757</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>9</v>
       </c>
@@ -829,8 +967,12 @@
       <c r="D30" s="1">
         <v>2.3666E-2</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="3">
+        <f t="shared" si="0"/>
+        <v>23.856854838709676</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>10</v>
       </c>
@@ -842,6 +984,17 @@
       </c>
       <c r="D31" s="1">
         <v>2.8732000000000001E-2</v>
+      </c>
+      <c r="E31" s="3">
+        <f t="shared" si="0"/>
+        <v>28.617529880478092</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H31" s="3">
+        <f>AVERAGE(E22:E31)</f>
+        <v>11.84375454957072</v>
       </c>
     </row>
   </sheetData>
